--- a/files/menus/arrowsmith_grill/sides_arrowsmith.xlsx
+++ b/files/menus/arrowsmith_grill/sides_arrowsmith.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\arrowsmith_grill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B18F898-5D1A-46BC-9BF6-8F0C026625DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D91F2C91-CE30-4886-8ADD-8C03312DD135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="24825" windowHeight="14220" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sides_arrowsmith" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Ingredients</t>
   </si>
@@ -53,36 +53,9 @@
     <t>NA</t>
   </si>
   <si>
-    <t>waffles</t>
-  </si>
-  <si>
-    <t>Potato</t>
-  </si>
-  <si>
-    <t>VGN, GF, DF</t>
-  </si>
-  <si>
-    <t>Turkey / Bacon / Cheddar Cheese / Lettuce / Tomato / Garlic Aioli</t>
-  </si>
-  <si>
-    <t>Turkey / Swiss Cheese / Roasted Onion / Tomato / Cucumber / Mixed Greens / Spicy Mayo</t>
-  </si>
-  <si>
-    <t>Falafel / Feta / Red Onion / Cucumber / Mixed Greens / Tomato / Tzatziki</t>
-  </si>
-  <si>
     <t>Allergens</t>
   </si>
   <si>
-    <t>Wheat, sulphites, egg.</t>
-  </si>
-  <si>
-    <t>GF</t>
-  </si>
-  <si>
-    <t>GF,VEG</t>
-  </si>
-  <si>
     <t>Nutrition Label</t>
   </si>
   <si>
@@ -92,17 +65,74 @@
     <t>Fries</t>
   </si>
   <si>
-    <t>Gravy</t>
-  </si>
-  <si>
-    <t>Tater Tots</t>
+    <t>Wheat.</t>
+  </si>
+  <si>
+    <t>Poutine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fries / Gravy / Cheese Curds</t>
+  </si>
+  <si>
+    <t>Wheat, milk, soy.</t>
+  </si>
+  <si>
+    <t>Extra Cheese Curds</t>
+  </si>
+  <si>
+    <t>Side Gravy</t>
+  </si>
+  <si>
+    <t>Milk.</t>
+  </si>
+  <si>
+    <t>VEG,DF</t>
+  </si>
+  <si>
+    <t>VEG</t>
+  </si>
+  <si>
+    <t>placeholder</t>
+  </si>
+  <si>
+    <t>29% MF Cheese Curds</t>
+  </si>
+  <si>
+    <t>Vegetarian Brown Gravy</t>
+  </si>
+  <si>
+    <t>12 oz Soup</t>
+  </si>
+  <si>
+    <t>Item will vary daily - find information in the cafeteria.</t>
+  </si>
+  <si>
+    <t>McCain Gold Crisp Fries[Potatoes, canola oil, wheat flour, modified corn starch, corn flour, salt, autolyzed yeast, baking powder, sodium phosphate, dextrose, modified cellulose, colour]</t>
+  </si>
+  <si>
+    <t>VEG,VGN,DF</t>
+  </si>
+  <si>
+    <t>Tater Tot</t>
+  </si>
+  <si>
+    <t>No known priotity allergens.</t>
+  </si>
+  <si>
+    <t>VEG,VGN,GF,DF</t>
+  </si>
+  <si>
+    <t>Tater_Tots</t>
+  </si>
+  <si>
+    <t>Potatoes / Canola Oil / Salt / Seasonings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +142,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,10 +174,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -160,8 +200,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:G5" totalsRowShown="0">
-  <autoFilter ref="A1:G5" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:G7" totalsRowShown="0">
+  <autoFilter ref="A1:G7" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{AA44CCDF-F9E2-4FB6-9AED-85FE3A3C6008}" name="ItemName"/>
     <tableColumn id="2" xr3:uid="{9D7FC130-DF66-4465-8F0B-6015043C6AA1}" name="Ingredients"/>
@@ -472,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E4FEC9-4E15-443B-89A8-5C76E19963E8}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -505,38 +545,38 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -545,30 +585,90 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>5</v>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/files/menus/arrowsmith_grill/sides_arrowsmith.xlsx
+++ b/files/menus/arrowsmith_grill/sides_arrowsmith.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\arrowsmith_grill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D91F2C91-CE30-4886-8ADD-8C03312DD135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DE73F1-87F8-4DEA-9B7E-6894016B5029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="10485" yWindow="1200" windowWidth="27915" windowHeight="15705" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="sides_arrowsmith" sheetId="1" r:id="rId1"/>

--- a/files/menus/arrowsmith_grill/sides_arrowsmith.xlsx
+++ b/files/menus/arrowsmith_grill/sides_arrowsmith.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\arrowsmith_grill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DE73F1-87F8-4DEA-9B7E-6894016B5029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59AB70E-4987-4D11-A619-173C63CB764E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10485" yWindow="1200" windowWidth="27915" windowHeight="15705" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="18615" yWindow="225" windowWidth="21285" windowHeight="13215" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="sides_arrowsmith" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Ingredients</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Poutine</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fries / Gravy / Cheese Curds</t>
-  </si>
-  <si>
     <t>Wheat, milk, soy.</t>
   </si>
   <si>
@@ -86,18 +83,12 @@
     <t>Milk.</t>
   </si>
   <si>
-    <t>VEG,DF</t>
-  </si>
-  <si>
     <t>VEG</t>
   </si>
   <si>
     <t>placeholder</t>
   </si>
   <si>
-    <t>29% MF Cheese Curds</t>
-  </si>
-  <si>
     <t>Vegetarian Brown Gravy</t>
   </si>
   <si>
@@ -110,9 +101,6 @@
     <t>McCain Gold Crisp Fries[Potatoes, canola oil, wheat flour, modified corn starch, corn flour, salt, autolyzed yeast, baking powder, sodium phosphate, dextrose, modified cellulose, colour]</t>
   </si>
   <si>
-    <t>VEG,VGN,DF</t>
-  </si>
-  <si>
     <t>Tater Tot</t>
   </si>
   <si>
@@ -126,6 +114,24 @@
   </si>
   <si>
     <t>Potatoes / Canola Oil / Salt / Seasonings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Golden Crispy Fries / Vegetarian Brown Gravy / Cheese Curds</t>
+  </si>
+  <si>
+    <t>29% MF Milk / Enzymes / Salt</t>
+  </si>
+  <si>
+    <t>GF,VEG</t>
+  </si>
+  <si>
+    <t>VGN,DF</t>
+  </si>
+  <si>
+    <t>Extra_Cheese_Curds</t>
+  </si>
+  <si>
+    <t>Side_Gravy_-_Need_Update</t>
   </si>
 </sst>
 </file>
@@ -515,7 +521,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +562,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -565,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -576,90 +582,90 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -668,7 +674,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
